--- a/remc_report_config.xlsx
+++ b/remc_report_config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="section_1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -42,15 +36,9 @@
     <t>avc_point</t>
   </si>
   <si>
-    <t>data_point</t>
-  </si>
-  <si>
     <t>wind</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>solar</t>
   </si>
   <si>
@@ -66,18 +54,6 @@
     <t>sch_point</t>
   </si>
   <si>
-    <t>Installed Capacity</t>
-  </si>
-  <si>
-    <t>Tuticorn_BetamWind</t>
-  </si>
-  <si>
-    <t>Tuticorn_GIREL</t>
-  </si>
-  <si>
-    <t>Tuticorn_Mytrah</t>
-  </si>
-  <si>
     <t>avc_id</t>
   </si>
   <si>
@@ -87,12 +63,6 @@
     <t>pooling_station</t>
   </si>
   <si>
-    <t>tuti</t>
-  </si>
-  <si>
-    <t>Aggregated Tut</t>
-  </si>
-  <si>
     <t>gen_type</t>
   </si>
   <si>
@@ -124,19 +94,81 @@
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00033184</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00032422,WREMCPRI.SCADA01.00045939</t>
+  </si>
+  <si>
+    <t>installed_capacity</t>
+  </si>
+  <si>
+    <t>act_id</t>
+  </si>
+  <si>
+    <t>Some Heading</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045859</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00032758</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045850</t>
+  </si>
+  <si>
+    <t>arinsun</t>
+  </si>
+  <si>
+    <t>mahindra</t>
+  </si>
+  <si>
+    <t>acme</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045861</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00032759</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045848</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045860</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00032413</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045849</t>
+  </si>
+  <si>
+    <t>mahin</t>
+  </si>
+  <si>
+    <t>Mahindra Pooling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,15 +188,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +528,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,61 +539,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -565,150 +603,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="4.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H7" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/remc_report_config.xlsx
+++ b/remc_report_config.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="section_1" sheetId="1" r:id="rId1"/>
     <sheet name="section_2" sheetId="2" r:id="rId2"/>
+    <sheet name="section_3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -151,6 +152,45 @@
   </si>
   <si>
     <t>Mahindra Pooling</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>guj</t>
+  </si>
+  <si>
+    <t>Gujarat Heading</t>
+  </si>
+  <si>
+    <t>Gujarat Solar</t>
+  </si>
+  <si>
+    <t>Gujarat Wind</t>
+  </si>
+  <si>
+    <t>Total Gujarat RE</t>
+  </si>
+  <si>
+    <t>agg_state</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00046848</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045129</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00046847</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045630</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045630,WREMCPRI.SCADA01.00046847</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045129,WREMCPRI.SCADA01.00046848</t>
   </si>
 </sst>
 </file>
@@ -605,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,4 +802,120 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="4.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/remc_report_config.xlsx
+++ b/remc_report_config.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="section_1" sheetId="1" r:id="rId1"/>
-    <sheet name="section_2" sheetId="2" r:id="rId2"/>
-    <sheet name="section_3" sheetId="3" r:id="rId3"/>
+    <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
+    <sheet name="ists_gen" sheetId="2" r:id="rId2"/>
+    <sheet name="state_gen" sheetId="3" r:id="rId3"/>
+    <sheet name="volt_profile" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -191,6 +192,33 @@
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00045129,WREMCPRI.SCADA01.00046848</t>
+  </si>
+  <si>
+    <t>400_kv_pnt</t>
+  </si>
+  <si>
+    <t>220_kv_pnt</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00016226</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00016228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHHAU </t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00016241</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00016243</t>
+  </si>
+  <si>
+    <t>REWA</t>
+  </si>
+  <si>
+    <t>Dummay Row</t>
   </si>
 </sst>
 </file>
@@ -232,9 +260,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -808,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,4 +951,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/remc_report_config.xlsx
+++ b/remc_report_config.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
     <sheet name="ists_gen" sheetId="2" r:id="rId2"/>
     <sheet name="state_gen" sheetId="3" r:id="rId3"/>
     <sheet name="volt_profile" sheetId="4" r:id="rId4"/>
+    <sheet name="graph_data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -219,6 +220,21 @@
   </si>
   <si>
     <t>Dummay Row</t>
+  </si>
+  <si>
+    <t>day_offset</t>
+  </si>
+  <si>
+    <t>pnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WR ISTS Total Schedule </t>
+  </si>
+  <si>
+    <t>WR ISTS  Total Actual</t>
+  </si>
+  <si>
+    <t>WR ISTS  Total Actual Prev</t>
   </si>
 </sst>
 </file>
@@ -678,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,4 +1037,77 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/remc_report_config.xlsx
+++ b/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -219,9 +219,6 @@
     <t>REWA</t>
   </si>
   <si>
-    <t>Dummay Row</t>
-  </si>
-  <si>
     <t>day_offset</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>WR ISTS  Total Actual Prev</t>
+  </si>
+  <si>
+    <t>dummy**</t>
   </si>
 </sst>
 </file>
@@ -692,10 +692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,6 +848,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -855,10 +879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A6" sqref="A6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,6 +988,42 @@
         <v>43</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -971,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,9 +1088,25 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1043,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1058,15 +1134,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>21</v>
@@ -1077,7 +1153,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -1088,7 +1164,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>

--- a/remc_report_config.xlsx
+++ b/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>capacity</t>
   </si>
   <si>
     <t>avc_point</t>
@@ -603,86 +600,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -694,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,157 +786,157 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3">
         <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3">
         <v>100</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -905,123 +972,123 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3">
         <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1049,65 +1116,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1134,18 +1201,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6">
         <v>-1</v>
@@ -1153,10 +1220,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6">
         <v>-1</v>
@@ -1164,10 +1231,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6">
         <v>-2</v>

--- a/remc_report_config.xlsx
+++ b/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>dummy**</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>HRS</t>
   </si>
 </sst>
 </file>
@@ -602,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,23 +1213,23 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6">
         <v>-1</v>
@@ -1231,25 +1237,36 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6">
         <v>-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/remc_report_config.xlsx
+++ b/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="volt_profile" sheetId="4" r:id="rId4"/>
     <sheet name="graph_data" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -75,18 +75,6 @@
     <t>agg_gen_type</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045939</t>
-  </si>
-  <si>
-    <t>WREMCPRI.SCADA01.00032422</t>
-  </si>
-  <si>
-    <t>WREMCPRI.SCADA01.00032421</t>
-  </si>
-  <si>
-    <t>WREMCPRI.SCADA01.00045938</t>
-  </si>
-  <si>
     <t>actual_point</t>
   </si>
   <si>
@@ -96,18 +84,12 @@
     <t>WREMCPRI.SCADA01.00033184</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00032422,WREMCPRI.SCADA01.00045939</t>
-  </si>
-  <si>
     <t>installed_capacity</t>
   </si>
   <si>
     <t>act_id</t>
   </si>
   <si>
-    <t>Some Heading</t>
-  </si>
-  <si>
     <t>dummy</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
     <t>arinsun</t>
   </si>
   <si>
-    <t>mahindra</t>
-  </si>
-  <si>
     <t>acme</t>
   </si>
   <si>
@@ -150,18 +129,12 @@
     <t>mahin</t>
   </si>
   <si>
-    <t>Mahindra Pooling</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
     <t>guj</t>
   </si>
   <si>
-    <t>Gujarat Heading</t>
-  </si>
-  <si>
     <t>Gujarat Solar</t>
   </si>
   <si>
@@ -186,12 +159,6 @@
     <t>WREMCPRI.SCADA01.00045630</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045630,WREMCPRI.SCADA01.00046847</t>
-  </si>
-  <si>
-    <t>WREMCPRI.SCADA01.00045129,WREMCPRI.SCADA01.00046848</t>
-  </si>
-  <si>
     <t>400_kv_pnt</t>
   </si>
   <si>
@@ -231,13 +198,172 @@
     <t>WR ISTS  Total Actual Prev</t>
   </si>
   <si>
+    <t>GIWEL II (Vadva)</t>
+  </si>
+  <si>
+    <t>Renew Power (Bhuvad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ostro Kutch Wind </t>
+  </si>
+  <si>
+    <t>Bachau Pooling</t>
+  </si>
+  <si>
+    <t>GIWEL III (Naranpar)</t>
+  </si>
+  <si>
+    <t>Inox (Vadva)</t>
+  </si>
+  <si>
+    <t>AGEMPL (Ratadiya)</t>
+  </si>
+  <si>
+    <t>Bhuj Pooling</t>
+  </si>
+  <si>
+    <t>Bachau</t>
+  </si>
+  <si>
+    <t>Bhuj</t>
+  </si>
+  <si>
+    <t>Rewa</t>
+  </si>
+  <si>
+    <t>Rewa Pooling</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Maharashtra Solar</t>
+  </si>
+  <si>
+    <t>Maharashtra Wind</t>
+  </si>
+  <si>
+    <t>Total Maharashtra RE</t>
+  </si>
+  <si>
+    <t>mah</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Solar</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Wind</t>
+  </si>
+  <si>
+    <t>Total Madhya Pradesh RE</t>
+  </si>
+  <si>
+    <t>BHUJ</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00046856</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045838</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045839</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00046855</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045841</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00032726</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00031527</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00046640</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00046641</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045864</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00030482</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045845</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045863</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00037226</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045846</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045862</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00030481</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045847</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045865</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045558</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045844</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045866</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00032415</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045843</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00037566</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00046845</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00037565</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00046846</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00034364</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00033787</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00033795</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00038819</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00046552</t>
+  </si>
+  <si>
     <t>dummy**</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>HRS</t>
   </si>
 </sst>
 </file>
@@ -279,12 +405,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -352,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -404,7 +526,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -606,156 +728,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -765,336 +838,666 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="4.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1">
+        <v>250</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1">
+        <v>184.5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4">
+        <v>250</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4">
+        <v>226.8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="4">
+        <v>200</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4">
+        <v>176.4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4">
+        <v>250</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B16" s="4">
+        <v>250</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4">
+        <v>250</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3">
-        <v>100</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3">
-        <v>100</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3">
-        <v>100</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="4.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="4.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4">
         <v>100</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3">
-        <v>100</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>42</v>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>42</v>
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>111</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>69</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1107,80 +1510,86 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>111</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1190,82 +1599,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-1</v>
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-2</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/remc_report_config.xlsx
+++ b/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="volt_profile" sheetId="4" r:id="rId4"/>
     <sheet name="graph_data" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -728,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,63 +764,27 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>100</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>100</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>81</v>
+      <c r="A3" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>100</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>83</v>
+      <c r="A4" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -828,6 +792,106 @@
         <v>111</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1265,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1602,7 +1666,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
